--- a/Mod_Korean/Lang/KR/Dialog/Drama/melilith.xlsx
+++ b/Mod_Korean/Lang/KR/Dialog/Drama/melilith.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="125">
   <si>
     <t xml:space="preserve">step</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">main_friend</t>
+  </si>
+  <si>
+    <t xml:space="preserve">survival</t>
   </si>
   <si>
     <r>
@@ -228,7 +231,7 @@
     <t xml:space="preserve">ああ</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes</t>
+    <t xml:space="preserve">Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -237,7 +240,7 @@
     <t xml:space="preserve">いや</t>
   </si>
   <si>
-    <t xml:space="preserve">No</t>
+    <t xml:space="preserve">No.</t>
   </si>
   <si>
     <t xml:space="preserve">そう…そうよね。誰だって、暗くて古い洋館で遊ぶなんて…</t>
@@ -854,9 +857,9 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K97" sqref="K97"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
@@ -923,25 +926,33 @@
         <v>12</v>
       </c>
     </row>
+    <row r="9" ht="12.8">
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="10" ht="14.9">
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="12.8">
       <c r="B11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" ht="12.8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="13.8">
@@ -949,23 +960,23 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" ht="12.8">
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="12.8">
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="12.8">
@@ -978,62 +989,62 @@
         <v>2</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="12.8">
       <c r="D21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" ht="12.8">
       <c r="D22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" ht="12.8">
       <c r="D23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="12.8">
       <c r="A24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="12.8">
       <c r="B25" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="12.8">
       <c r="B26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="12.8">
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="13.8">
@@ -1041,13 +1052,13 @@
         <v>3</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" ht="94.75">
@@ -1055,85 +1066,85 @@
         <v>4</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" ht="12.8">
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H30" s="1">
         <v>5</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K30" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" ht="12.8">
       <c r="B31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="1">
         <v>6</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" ht="12.8">
       <c r="D32" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="23.85">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H34" s="1">
         <v>7</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="12.8">
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" ht="12.8">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" ht="13.8">
@@ -1141,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" ht="57.45">
@@ -1155,13 +1166,13 @@
         <v>9</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" ht="46.25">
@@ -1169,58 +1180,58 @@
         <v>10</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" ht="12.8">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H42" s="1">
         <v>11</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K42" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" ht="12.8">
       <c r="B43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43" s="1">
         <v>12</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K43" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" ht="12.8">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" ht="13.8">
@@ -1228,13 +1239,13 @@
         <v>13</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K48" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" ht="113.4">
@@ -1242,28 +1253,28 @@
         <v>14</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" ht="13.8">
       <c r="D50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I50" s="5"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" ht="13.8">
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E51" s="7"/>
       <c r="I51" s="5"/>
@@ -1271,7 +1282,7 @@
     </row>
     <row r="52" ht="13.8">
       <c r="D52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E52" s="7">
         <v>27</v>
@@ -1284,35 +1295,35 @@
         <v>15</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="54" ht="12.8">
       <c r="B54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" ht="35.05">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H56" s="1">
         <v>16</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K56" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" ht="13.8">
@@ -1320,12 +1331,12 @@
     </row>
     <row r="58" ht="12.8">
       <c r="B58" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="12.8">
       <c r="A65" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="37.3">
@@ -1333,54 +1344,54 @@
         <v>17</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" ht="12.8">
       <c r="B67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E67" s="7"/>
     </row>
     <row r="68" ht="12.8">
       <c r="D68" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" ht="12.8">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E69" s="7"/>
     </row>
     <row r="70" ht="12.8">
       <c r="B70" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" ht="12.8">
       <c r="B71" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" ht="13.8">
       <c r="A73" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I73" s="6"/>
     </row>
@@ -1389,13 +1400,13 @@
         <v>18</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" ht="46.25">
@@ -1403,58 +1414,58 @@
         <v>19</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K75" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" ht="12.8">
       <c r="B76" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H76" s="1">
         <v>20</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K76" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" ht="12.8">
       <c r="B77" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H77" s="1">
         <v>21</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" ht="12.8">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" ht="12.8">
@@ -1462,18 +1473,18 @@
         <v>31</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K80" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" ht="13.8">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I81" s="6"/>
     </row>
@@ -1482,18 +1493,18 @@
         <v>22</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K82" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83" ht="13.8">
       <c r="B83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I83" s="6"/>
     </row>
@@ -1505,22 +1516,22 @@
     </row>
     <row r="86" ht="13.8">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I86" s="6"/>
     </row>
     <row r="87" ht="13.8">
       <c r="B87" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I87" s="6"/>
     </row>
     <row r="88" ht="13.8">
       <c r="D88" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E88" s="1">
         <v>12</v>
@@ -1529,10 +1540,10 @@
     </row>
     <row r="89" ht="12.8">
       <c r="D89" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" ht="12.8">
@@ -1540,13 +1551,13 @@
         <v>24</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91" ht="22.35">
@@ -1554,13 +1565,13 @@
         <v>27</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" ht="32.8">
@@ -1568,13 +1579,13 @@
         <v>28</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K92" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" ht="22.35">
@@ -1582,13 +1593,13 @@
         <v>29</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K93" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" ht="12.8">
@@ -1596,13 +1607,13 @@
         <v>30</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J94" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K94" t="s">
         <v>91</v>
-      </c>
-      <c r="K94" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="95" ht="32.8">
@@ -1610,13 +1621,13 @@
         <v>25</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K95" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" ht="12.8">
@@ -1624,13 +1635,13 @@
         <v>26</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J96" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K96" t="s">
         <v>91</v>
-      </c>
-      <c r="K96" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="97" ht="13.8">
@@ -1638,34 +1649,34 @@
         <v>23</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K97" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="98" ht="12.8">
       <c r="D98" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" ht="12.8">
       <c r="D99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="100" ht="12.8">
       <c r="B100" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
